--- a/medicine/Pharmacie/Monobactame/Monobactame.xlsx
+++ b/medicine/Pharmacie/Monobactame/Monobactame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les monobactames sont une classe d'antibiotique de type bêta-lactamine, contenant entre autres l'aztréonam.
 </t>
@@ -511,7 +523,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mécanisme d'action est la liaison aux protéines de liaison à la pénicilline (en) (PBP) bactériens. Ils se lient davantage aux PBP-3. Il a une action bactéricide dont l'activité dépend du temps passé au-dessus de la concentration minimale inhibitrice (CMI) de la bactérie.
 </t>
@@ -542,7 +556,9 @@
           <t>Spectre d'activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Agit plus efficacement sur les bacilles gram négatifs aérobies. La classe est inactive contre les gram positifs et les anaérobies. Elle induit peu les enzymes bactériens (β-lactamases).
 </t>
@@ -573,7 +589,9 @@
           <t>Mécanismes de résistance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries peuvent se défendre des agents antibactériens par plusieurs mécanismes. Pour cette classe particulière, elles y arrivent par la production de β-lactamases, des enzymes venant inactiver la substance active. 
 </t>
@@ -604,7 +622,9 @@
           <t>Combinaison d'agents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Avec les aminosides (synergie ou additivité)
 Avec la pipéracilline (synergie ou additivité)
